--- a/样板.XLSX
+++ b/样板.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\web前后端学习\读取excel生成课表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84FD6E7-7E71-4744-AE39-6140E148C73F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E8ECA6-8ACE-4A4F-8E8E-68396363D4A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,6 +77,105 @@
   <si>
     <t>Saturday</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[BDT3202A]云计算与数据中心</t>
+  </si>
+  <si>
+    <t>肖成龙</t>
+  </si>
+  <si>
+    <t>E301</t>
+  </si>
+  <si>
+    <t>[CST3152B]嵌入式系统</t>
+  </si>
+  <si>
+    <t>屈建勤</t>
+  </si>
+  <si>
+    <t>G座301</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>[CST3256A]并行程序设计</t>
+  </si>
+  <si>
+    <t>熊智</t>
+  </si>
+  <si>
+    <t>E305</t>
+  </si>
+  <si>
+    <t>[CST3306A]算法设计与分析</t>
+  </si>
+  <si>
+    <t>陈银冬</t>
+  </si>
+  <si>
+    <t>讲堂三</t>
+  </si>
+  <si>
+    <t>[CST3402A]计算机网络</t>
+  </si>
+  <si>
+    <t>周腾/林泽铭(实验)</t>
+  </si>
+  <si>
+    <t>E306</t>
+  </si>
+  <si>
+    <t>[CST3452A]软件案例分析</t>
+  </si>
+  <si>
+    <t>张承钿</t>
+  </si>
+  <si>
+    <t>[CST3455A]系统分析与设计</t>
+  </si>
+  <si>
+    <t>方若宇</t>
+  </si>
+  <si>
+    <t>E307</t>
+  </si>
+  <si>
+    <t>[HED6124A]教育社会学</t>
+  </si>
+  <si>
+    <t>徐萍</t>
+  </si>
+  <si>
+    <t>D座303</t>
+  </si>
+  <si>
+    <t>[MBI6240A]海洋与全球变暖</t>
+  </si>
+  <si>
+    <t>阮祚禧</t>
+  </si>
+  <si>
+    <t>G座402</t>
+  </si>
+  <si>
+    <t>[PED5000A]足球训练(1)</t>
+  </si>
+  <si>
+    <t>王家君</t>
+  </si>
+  <si>
+    <t>人工草皮足球场</t>
+  </si>
+  <si>
+    <t>[SOC6140B]中国近现代史纲要</t>
+  </si>
+  <si>
+    <t>许艳民</t>
+  </si>
+  <si>
+    <t>D座504</t>
   </si>
 </sst>
 </file>
@@ -575,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -622,174 +721,376 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="11"/>
+    <row r="2" spans="1:13" ht="56" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>125808</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="11">
+        <v>43878</v>
+      </c>
       <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="H2" s="10">
+        <v>67</v>
+      </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="14"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="13"/>
+    <row r="3" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>126059</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="13">
+        <v>43878</v>
+      </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="15"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="11"/>
+    <row r="4" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>125780</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="11">
+        <v>43878</v>
+      </c>
       <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="H4" s="10">
+        <v>89</v>
+      </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="13"/>
+    <row r="5" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>125444</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="13">
+        <v>43878</v>
+      </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="I5" s="12">
+        <v>67</v>
+      </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="11"/>
+    <row r="6" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>125536</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="10">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="11">
+        <v>43878</v>
+      </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="H6" s="10">
+        <v>34</v>
+      </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="J6" s="10">
+        <v>34</v>
+      </c>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="14"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="13"/>
+    <row r="7" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>125779</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="13">
+        <v>43846</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="K7" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="L7" s="12"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="11"/>
+    <row r="8" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>125781</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="11">
+        <v>43846</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="L8" s="10">
+        <v>34</v>
+      </c>
       <c r="M8" s="14"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="13"/>
+    <row r="9" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>126589</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="13">
+        <v>43846</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="L9" s="12">
+        <v>12</v>
+      </c>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="11"/>
+    <row r="10" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>125909</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="11">
+        <v>43870</v>
+      </c>
       <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10">
+        <v>12</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="13"/>
+    <row r="11" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>125998</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="13">
+        <v>43878</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="17"/>
+    <row r="12" spans="1:13" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>125149</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="16">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="17">
+        <v>43846</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+      <c r="K12" s="16">
+        <v>890</v>
+      </c>
       <c r="L12" s="16"/>
       <c r="M12" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://credit2.stu.edu.cn/Info/DisplayKkb.aspx?ClassID=125808&amp;auth=7F220BD6423230CE51C002698EFB0FE8" xr:uid="{8B661803-7029-48A1-B7D6-806292982410}"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://credit2.stu.edu.cn/Course/DispCourseInfo.aspx?id=10601" xr:uid="{193723FE-5153-4D22-BE1C-CD36D8AFC9BF}"/>
+    <hyperlink ref="D2" r:id="rId3" display="http://credit2.stu.edu.cn/Teacher/ClassTeacherInfo.aspx?ClassID=125808" xr:uid="{D8E8DA97-EA35-40EF-898B-82C1BD7EF389}"/>
+    <hyperlink ref="E2" r:id="rId4" display="http://credit2.stu.edu.cn/CoursePlan/viewclassroom.aspx?ClassID=125808" xr:uid="{39336295-F3D0-46B1-847A-92ACE092C2BE}"/>
+    <hyperlink ref="A3" r:id="rId5" display="http://credit2.stu.edu.cn/Info/DisplayKkb.aspx?ClassID=126059&amp;auth=2E1E1EA43A710CD203FE69FCD57272AA" xr:uid="{531DC598-56F5-4C33-8DD1-E66482106742}"/>
+    <hyperlink ref="B3" r:id="rId6" display="http://credit2.stu.edu.cn/Course/DispCourseInfo.aspx?id=6569" xr:uid="{A40F45D4-CAE2-48E5-BCFB-0FA06EDDC47C}"/>
+    <hyperlink ref="D3" r:id="rId7" display="http://credit2.stu.edu.cn/Teacher/ClassTeacherInfo.aspx?ClassID=126059" xr:uid="{6E26B76E-AD37-4D74-B621-996B0771E31D}"/>
+    <hyperlink ref="E3" r:id="rId8" display="http://credit2.stu.edu.cn/CoursePlan/viewclassroom.aspx?ClassID=126059" xr:uid="{5536766E-7087-4E64-9F48-12C7C4EC9260}"/>
+    <hyperlink ref="A4" r:id="rId9" display="http://credit2.stu.edu.cn/Info/DisplayKkb.aspx?ClassID=125780&amp;auth=67646CD6698797479A84CF0BC4AA6780" xr:uid="{A816D483-0BD9-4B8A-A6A5-618F43898A04}"/>
+    <hyperlink ref="B4" r:id="rId10" display="http://credit2.stu.edu.cn/Course/DispCourseInfo.aspx?id=4668" xr:uid="{0BFF7E7D-E526-45CF-9579-F9A12C306F7E}"/>
+    <hyperlink ref="D4" r:id="rId11" display="http://credit2.stu.edu.cn/Teacher/ClassTeacherInfo.aspx?ClassID=125780" xr:uid="{5E37A44E-6ED9-404D-939D-8F8EB28AAE6E}"/>
+    <hyperlink ref="E4" r:id="rId12" display="http://credit2.stu.edu.cn/CoursePlan/viewclassroom.aspx?ClassID=125780" xr:uid="{7A298714-BEC0-43D8-AEA8-F171FDAD5745}"/>
+    <hyperlink ref="A5" r:id="rId13" display="http://credit2.stu.edu.cn/Info/DisplayKkb.aspx?ClassID=125444&amp;auth=FBE9C457475EED00A6186AE0F92F8456" xr:uid="{AC5CAC39-D485-40C5-BDD6-B4D1B4EBAD4C}"/>
+    <hyperlink ref="B5" r:id="rId14" display="http://credit2.stu.edu.cn/Course/DispCourseInfo.aspx?id=3405" xr:uid="{0C8DDF38-039A-4F4D-93C1-E8981EBEF4DD}"/>
+    <hyperlink ref="D5" r:id="rId15" display="http://credit2.stu.edu.cn/Teacher/ClassTeacherInfo.aspx?ClassID=125444" xr:uid="{7CAEF297-F7B9-4525-A964-0C5EF63F3F83}"/>
+    <hyperlink ref="E5" r:id="rId16" display="http://credit2.stu.edu.cn/CoursePlan/viewclassroom.aspx?ClassID=125444" xr:uid="{67148415-D293-4F8A-8B6A-B57883311C5D}"/>
+    <hyperlink ref="A6" r:id="rId17" display="http://credit2.stu.edu.cn/Info/DisplayKkb.aspx?ClassID=125536&amp;auth=7F0FD7359D38FE7F79D3E0FFD656D7D0" xr:uid="{1A68BD12-6472-4E1C-BAB4-52989CFFC4D1}"/>
+    <hyperlink ref="B6" r:id="rId18" display="http://credit2.stu.edu.cn/Course/DispCourseInfo.aspx?id=6434" xr:uid="{E3166481-743F-482C-ABB2-37341D540D67}"/>
+    <hyperlink ref="D6" r:id="rId19" display="http://credit2.stu.edu.cn/Teacher/ClassTeacherInfo.aspx?ClassID=125536" xr:uid="{B65759D1-2911-4604-B263-F330C3D895CF}"/>
+    <hyperlink ref="E6" r:id="rId20" display="http://credit2.stu.edu.cn/CoursePlan/viewclassroom.aspx?ClassID=125536" xr:uid="{080B416C-8CAF-451E-B640-C646808030B3}"/>
+    <hyperlink ref="A7" r:id="rId21" display="http://credit2.stu.edu.cn/Info/DisplayKkb.aspx?ClassID=125779&amp;auth=927CD4B1789C02FB0DFE52A6A8F1EF9B" xr:uid="{EDB95CD1-9E39-4002-8F0E-62B40DAEFE2F}"/>
+    <hyperlink ref="B7" r:id="rId22" display="http://credit2.stu.edu.cn/Course/DispCourseInfo.aspx?id=4517" xr:uid="{E54AE32D-9D37-4267-A7A7-CC6106B5EEF8}"/>
+    <hyperlink ref="D7" r:id="rId23" display="http://credit2.stu.edu.cn/Teacher/ClassTeacherInfo.aspx?ClassID=125779" xr:uid="{F8B495A6-572B-4B66-ADD7-C6C15D112CC0}"/>
+    <hyperlink ref="E7" r:id="rId24" display="http://credit2.stu.edu.cn/CoursePlan/viewclassroom.aspx?ClassID=125779" xr:uid="{C6903D04-1E63-44EA-9193-A0BE7A56DD5D}"/>
+    <hyperlink ref="A8" r:id="rId25" display="http://credit2.stu.edu.cn/Info/DisplayKkb.aspx?ClassID=125781&amp;auth=633578CB80CB9FB9A4431FD05E235C61" xr:uid="{FC324FFE-F115-4EF1-881C-8EDA2394DDA4}"/>
+    <hyperlink ref="B8" r:id="rId26" display="http://credit2.stu.edu.cn/Course/DispCourseInfo.aspx?id=6314" xr:uid="{A3C53427-BD9A-4C24-BC6A-F8B955C46A40}"/>
+    <hyperlink ref="D8" r:id="rId27" display="http://credit2.stu.edu.cn/Teacher/ClassTeacherInfo.aspx?ClassID=125781" xr:uid="{D3E0E20E-AEF8-4FC1-93FA-5AE4338C8B11}"/>
+    <hyperlink ref="E8" r:id="rId28" display="http://credit2.stu.edu.cn/CoursePlan/viewclassroom.aspx?ClassID=125781" xr:uid="{079E7C61-8D14-4146-BBFC-B976EF540679}"/>
+    <hyperlink ref="A9" r:id="rId29" display="http://credit2.stu.edu.cn/Info/DisplayKkb.aspx?ClassID=126589&amp;auth=228A391F9D9BD96D893E47E448283A29" xr:uid="{C5106EAD-AB36-4A7B-AAC9-7669926A0174}"/>
+    <hyperlink ref="B9" r:id="rId30" display="http://credit2.stu.edu.cn/Course/DispCourseInfo.aspx?id=7123" xr:uid="{7EF6CE29-B14F-4748-AFA9-2F5959DD6012}"/>
+    <hyperlink ref="D9" r:id="rId31" display="http://credit2.stu.edu.cn/Teacher/ClassTeacherInfo.aspx?ClassID=126589" xr:uid="{26CB356E-F31F-4550-8BD1-7F0C28F4A37B}"/>
+    <hyperlink ref="E9" r:id="rId32" display="http://credit2.stu.edu.cn/CoursePlan/viewclassroom.aspx?ClassID=126589" xr:uid="{D62E358C-72BF-440B-9870-35C5A10EE666}"/>
+    <hyperlink ref="A10" r:id="rId33" display="http://credit2.stu.edu.cn/Info/DisplayKkb.aspx?ClassID=125909&amp;auth=FCAF33565A800CB1AC03AA43F819EF3E" xr:uid="{5CC1BD7A-86EA-4A29-9ACE-88CBE3C76204}"/>
+    <hyperlink ref="B10" r:id="rId34" display="http://credit2.stu.edu.cn/Course/DispCourseInfo.aspx?id=5669" xr:uid="{29588F14-550A-4676-B650-FD434696CAB7}"/>
+    <hyperlink ref="D10" r:id="rId35" display="http://credit2.stu.edu.cn/Teacher/ClassTeacherInfo.aspx?ClassID=125909" xr:uid="{64AC6085-31F4-4BFF-847F-391DA959E095}"/>
+    <hyperlink ref="E10" r:id="rId36" display="http://credit2.stu.edu.cn/CoursePlan/viewclassroom.aspx?ClassID=125909" xr:uid="{4601794A-C2F7-41E3-B4D5-EABE7A261A88}"/>
+    <hyperlink ref="A11" r:id="rId37" display="http://credit2.stu.edu.cn/Info/DisplayKkb.aspx?ClassID=125998&amp;auth=ABE37434C2C84A479660051E00DD8121" xr:uid="{8768DAB0-5361-462D-965A-F9CED87217ED}"/>
+    <hyperlink ref="B11" r:id="rId38" display="http://credit2.stu.edu.cn/Course/DispCourseInfo.aspx?id=3619" xr:uid="{8B0A1413-61E7-4AC1-8E3A-EE06090CD8A7}"/>
+    <hyperlink ref="D11" r:id="rId39" display="http://credit2.stu.edu.cn/Teacher/ClassTeacherInfo.aspx?ClassID=125998" xr:uid="{7C75723F-E0E3-48DB-9D78-E2CBE0D306CD}"/>
+    <hyperlink ref="E11" r:id="rId40" display="http://credit2.stu.edu.cn/CoursePlan/viewclassroom.aspx?ClassID=125998" xr:uid="{842ED504-26A8-45ED-BE69-04BB90C2372B}"/>
+    <hyperlink ref="A12" r:id="rId41" display="http://credit2.stu.edu.cn/Info/DisplayKkb.aspx?ClassID=125149&amp;auth=545CDE5820AD5F87D2631E79FF3F59F6" xr:uid="{FCB7098D-E8B2-4724-8A3B-92F27CA254CA}"/>
+    <hyperlink ref="B12" r:id="rId42" display="http://credit2.stu.edu.cn/Course/DispCourseInfo.aspx?id=8694" xr:uid="{D090AAB1-EA32-4627-B7FA-F3C22612BA0F}"/>
+    <hyperlink ref="D12" r:id="rId43" display="http://credit2.stu.edu.cn/Teacher/ClassTeacherInfo.aspx?ClassID=125149" xr:uid="{63C00943-A36F-4AF4-AF56-464124FC8777}"/>
+    <hyperlink ref="E12" r:id="rId44" display="http://credit2.stu.edu.cn/CoursePlan/viewclassroom.aspx?ClassID=125149" xr:uid="{62A3973A-D3E6-49F3-B56E-0EBDC50B8963}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>